--- a/App_Templates/PKG_TEMPLATE.xlsx
+++ b/App_Templates/PKG_TEMPLATE.xlsx
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -484,76 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -586,6 +516,60 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -629,139 +613,139 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1091,55 +1075,55 @@
     <col min="10" max="11" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="15" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="8" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="15" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="46" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="45" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="45" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="47" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
       <c r="E1" s="2"/>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="54"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="12"/>
       <c r="E2" s="2"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1160,11 +1144,11 @@
       <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
       <c r="E3" s="2"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1223,100 +1207,100 @@
       <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="37" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="49" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="47" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1332,45 +1316,32 @@
       <c r="K8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="12" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="W8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="48"/>
+      <c r="X8" s="53"/>
     </row>
   </sheetData>
   <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
   <autoFilter ref="A8:X8"/>
   <mergeCells count="26">
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="N6:X6"/>
-    <mergeCell ref="X7:X8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
@@ -1384,6 +1355,19 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="N6:X6"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
